--- a/settings/data/SumDependence.xlsx
+++ b/settings/data/SumDependence.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nep\Desktop\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD01127C-73A2-490B-997E-A912C59FC453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6449204F-9A91-4219-92B1-98A16A66EE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8970" yWindow="1410" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sum_Dependence" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>string</t>
   </si>
@@ -47,7 +44,18 @@
     <t>属性依存ID</t>
   </si>
   <si>
-    <r>
+    <t>注释</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">属性
 </t>
     </r>
@@ -56,6 +64,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -66,6 +75,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -77,6 +87,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -91,6 +102,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -102,6 +114,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -112,6 +125,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -123,6 +137,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -139,6 +154,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,6 +166,7 @@
         <sz val="10"/>
         <color theme="9"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -160,6 +177,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -171,6 +189,7 @@
         <sz val="10"/>
         <color theme="4"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -182,6 +201,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>attribute</t>
   </si>
   <si>
@@ -194,7 +216,10 @@
     <t>relationship</t>
   </si>
   <si>
-    <t>sumdep_mana_multiply</t>
+    <t>sumdep_marisa_alice_duration</t>
+  </si>
+  <si>
+    <t>魔爱组召唤物持续时间的依存</t>
   </si>
   <si>
     <t>mana</t>
@@ -204,6 +229,9 @@
   </si>
   <si>
     <t>multiply</t>
+  </si>
+  <si>
+    <t>0.0025|0</t>
   </si>
 </sst>
 </file>
@@ -222,6 +250,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -229,6 +258,7 @@
       <sz val="10"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -236,6 +266,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -243,12 +274,14 @@
       <sz val="10"/>
       <color theme="4"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -309,25 +342,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Atk_Dependence"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>0.0025|0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,23 +594,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="29.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="36.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,13 +622,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="92.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="92.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -623,46 +641,54 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f>[1]Atk_Dependence!$D$4</f>
-        <v>0.0025|0</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
